--- a/doc/papers/cgo08/figures/experiments.xlsx
+++ b/doc/papers/cgo08/figures/experiments.xlsx
@@ -1494,7 +1494,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.151203402206303"/>
+          <c:y val="0.010948905109489"/>
+          <c:w val="0.707618258244035"/>
+          <c:h val="0.14414966377378"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3801,8 +3810,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/doc/papers/cgo08/figures/experiments.xlsx
+++ b/doc/papers/cgo08/figures/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="-24860" windowWidth="22600" windowHeight="20440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-680" yWindow="-21520" windowWidth="28520" windowHeight="21000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>C from Matlab</t>
   </si>
@@ -153,13 +153,48 @@
     <t>Orio (Seq.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Base (Seq.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG/P (MFLOPS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base (Par.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESSL (Seq.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESSL (Par.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goto (Seq.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goto (Par.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orio (Seq.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orio (Par.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -204,6 +239,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF800080"/>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -214,7 +256,17 @@
   <c:style val="18"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.109824224705397"/>
+          <c:y val="0.203430674402425"/>
+          <c:w val="0.865118827686403"/>
+          <c:h val="0.614879507736591"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -794,25 +846,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="524366952"/>
-        <c:axId val="550552024"/>
+        <c:axId val="431788392"/>
+        <c:axId val="431791560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="524366952"/>
+        <c:axId val="431788392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550552024"/>
+        <c:crossAx val="431791560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="550552024"/>
+        <c:axId val="431791560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +872,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524366952"/>
+        <c:crossAx val="431788392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -831,8 +883,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.143684605213822"/>
-          <c:y val="0.0421455938697318"/>
+          <c:x val="0.196076444316898"/>
+          <c:y val="0.0491971902073696"/>
           <c:w val="0.707618258244035"/>
           <c:h val="0.151329532084352"/>
         </c:manualLayout>
@@ -861,6 +913,7 @@
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -876,10 +929,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0598268934166734"/>
+          <c:x val="0.110077843344753"/>
           <c:y val="0.167427218149455"/>
-          <c:w val="0.898935993181265"/>
-          <c:h val="0.711764865598697"/>
+          <c:w val="0.862489552131724"/>
+          <c:h val="0.664745147476466"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1461,25 +1514,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="591261784"/>
-        <c:axId val="652569400"/>
+        <c:axId val="431860792"/>
+        <c:axId val="431863960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="591261784"/>
+        <c:axId val="431860792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="652569400"/>
+        <c:crossAx val="431863960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="652569400"/>
+        <c:axId val="431863960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1540,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="591261784"/>
+        <c:crossAx val="431860792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1498,8 +1551,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.151203402206303"/>
-          <c:y val="0.010948905109489"/>
+          <c:x val="0.194483525550195"/>
+          <c:y val="0.0176660232512813"/>
           <c:w val="0.707618258244035"/>
           <c:h val="0.14414966377378"/>
         </c:manualLayout>
@@ -1528,6 +1581,7 @@
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1543,10 +1597,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0598268934166734"/>
-          <c:y val="0.167427218149455"/>
-          <c:w val="0.898935993181265"/>
-          <c:h val="0.711764865598697"/>
+          <c:x val="0.105385001703944"/>
+          <c:y val="0.170952927478099"/>
+          <c:w val="0.864767456459742"/>
+          <c:h val="0.648603440837019"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2128,25 +2182,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="566736248"/>
-        <c:axId val="480821528"/>
+        <c:axId val="431908840"/>
+        <c:axId val="431912104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="566736248"/>
+        <c:axId val="431908840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480821528"/>
+        <c:crossAx val="431912104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480821528"/>
+        <c:axId val="431912104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2208,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566736248"/>
+        <c:crossAx val="431908840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2165,8 +2219,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.146190870877982"/>
-          <c:y val="0.00383141762452107"/>
+          <c:x val="0.173525729557154"/>
+          <c:y val="0.000305665726626566"/>
           <c:w val="0.707618258244035"/>
           <c:h val="0.151329532084352"/>
         </c:manualLayout>
@@ -2195,6 +2249,7 @@
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2210,10 +2265,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0598268934166734"/>
+          <c:x val="0.114373120973515"/>
           <c:y val="0.167427218149455"/>
-          <c:w val="0.898935993181265"/>
-          <c:h val="0.711764865598697"/>
+          <c:w val="0.858026843235505"/>
+          <c:h val="0.674955074634076"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2795,25 +2850,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="577196072"/>
-        <c:axId val="591467032"/>
+        <c:axId val="431957032"/>
+        <c:axId val="431960232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="577196072"/>
+        <c:axId val="431957032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="591467032"/>
+        <c:crossAx val="431960232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="591467032"/>
+        <c:axId val="431960232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,7 +2876,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="577196072"/>
+        <c:crossAx val="431957032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2832,10 +2887,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.146190870877982"/>
-          <c:y val="0.00383141762452107"/>
+          <c:x val="0.17119094488189"/>
+          <c:y val="0.0222363653929762"/>
           <c:w val="0.724945037810868"/>
-          <c:h val="0.151329532084352"/>
+          <c:h val="0.129857253272789"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2862,6 +2917,838 @@
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0982086918424223"/>
+          <c:y val="0.0263381928744055"/>
+          <c:w val="0.852568121797758"/>
+          <c:h val="0.841159663210416"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base (Seq.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$103:$K$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>69.204658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>364.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>289.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>289.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>289.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base (Par.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$104:$K$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>695.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>834.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>984.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1003.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1151.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1150.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1154.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1153.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESSL (Seq.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$105:$K$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="7">
+                  <c:v>473.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>487.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>488.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ESSL (Par.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$106:$K$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="7">
+                  <c:v>831.3099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>856.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>858.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Goto (Seq.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$107:$K$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="7">
+                  <c:v>408.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>411.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>411.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Goto (Par.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$108:$K$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="7">
+                  <c:v>408.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>411.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>411.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orio (Seq.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$109:$K$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6744.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1910.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1902.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>781.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>781.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>781.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>544.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>534.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>537.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>533.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orio (Par.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="28575" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$110:$K$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6739.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1910.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>842.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1285.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1719.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1739.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1547.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1482.57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1678.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1511.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="451534792"/>
+        <c:axId val="451537912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="451534792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="451537912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451537912"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="451534792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.656237267095863"/>
+          <c:y val="0.599009900990099"/>
+          <c:w val="0.290159670922124"/>
+          <c:h val="0.228952989787168"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="9525">
+      <a:prstDash val="sysDot"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2875,10 +3762,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>122174</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2902,13 +3789,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85682</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2935,10 +3822,10 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2960,15 +3847,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2987,7 +3874,910 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.409</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05923</cdr:x>
+      <cdr:y>0.64699</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-263525" y="1736725"/>
+          <a:ext cx="857250" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>Time (Sec.)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46697</cdr:x>
+      <cdr:y>0.89909</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62187</cdr:x>
+      <cdr:y>0.96961</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2603500" y="3238500"/>
+          <a:ext cx="863600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>Matrix Size</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.36944</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05923</cdr:x>
+      <cdr:y>0.59614</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-263525" y="1660525"/>
+          <a:ext cx="857250" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>Time (Sec.)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46469</cdr:x>
+      <cdr:y>0.91604</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61959</cdr:x>
+      <cdr:y>0.98321</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2590800" y="3463883"/>
+          <a:ext cx="863600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>Matrix Size</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.34906</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05923</cdr:x>
+      <cdr:y>0.58705</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-263525" y="1520825"/>
+          <a:ext cx="857250" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>Time (Sec.)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46925</cdr:x>
+      <cdr:y>0.90977</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62415</cdr:x>
+      <cdr:y>0.98029</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2616200" y="3373788"/>
+          <a:ext cx="863600" cy="261504"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>Matrix Size</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.00909</cdr:x>
+      <cdr:y>0.01227</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart"/>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="50800" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.00909</cdr:x>
+      <cdr:y>0.01227</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="3" name="chart"/>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="50800" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.40414</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05909</cdr:x>
+      <cdr:y>0.6112</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-263525" y="1936750"/>
+          <a:ext cx="857250" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>Time (Sec.)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47045</cdr:x>
+      <cdr:y>0.92638</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.625</cdr:x>
+      <cdr:y>0.98773</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2628900" y="3835400"/>
+          <a:ext cx="863600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0"/>
+            <a:t>Matrix Size</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00618</cdr:x>
+      <cdr:y>0.38985</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.04328</cdr:x>
+      <cdr:y>0.54084</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-184150" y="2235200"/>
+          <a:ext cx="774700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0"/>
+            <a:t>MFLOP/s</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47218</cdr:x>
+      <cdr:y>0.92946</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.56646</cdr:x>
+      <cdr:y>0.98886</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3879850" y="4768850"/>
+          <a:ext cx="774700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0"/>
+            <a:t>Array Size</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2999,11 +4789,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="t_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="t" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="t" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="t_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3808,17 +5598,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4965,6 +6756,239 @@
       </c>
       <c r="K98">
         <v>1.4200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <v>1000</v>
+      </c>
+      <c r="E102">
+        <v>10000</v>
+      </c>
+      <c r="F102">
+        <v>50000</v>
+      </c>
+      <c r="G102">
+        <v>100000</v>
+      </c>
+      <c r="H102">
+        <v>500000</v>
+      </c>
+      <c r="I102">
+        <v>1000000</v>
+      </c>
+      <c r="J102">
+        <v>5000000</v>
+      </c>
+      <c r="K102">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103">
+        <v>69.204657999999995</v>
+      </c>
+      <c r="C103">
+        <v>221.72</v>
+      </c>
+      <c r="D103">
+        <v>364.54</v>
+      </c>
+      <c r="E103">
+        <v>247.19</v>
+      </c>
+      <c r="F103">
+        <v>254.94</v>
+      </c>
+      <c r="G103">
+        <v>255.88</v>
+      </c>
+      <c r="H103">
+        <v>289.18</v>
+      </c>
+      <c r="I103">
+        <v>289</v>
+      </c>
+      <c r="J103">
+        <v>289.2</v>
+      </c>
+      <c r="K103">
+        <v>289.18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104">
+        <v>15.14</v>
+      </c>
+      <c r="C104">
+        <v>122.53</v>
+      </c>
+      <c r="D104">
+        <v>695.77</v>
+      </c>
+      <c r="E104">
+        <v>834.75</v>
+      </c>
+      <c r="F104">
+        <v>984.1</v>
+      </c>
+      <c r="G104">
+        <v>1003.73</v>
+      </c>
+      <c r="H104">
+        <v>1151.7</v>
+      </c>
+      <c r="I104">
+        <v>1150</v>
+      </c>
+      <c r="J104">
+        <v>1154.57</v>
+      </c>
+      <c r="K104">
+        <v>1153.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105">
+        <v>473.21</v>
+      </c>
+      <c r="J105">
+        <v>487.49</v>
+      </c>
+      <c r="K105">
+        <v>488.23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106">
+        <v>831.31</v>
+      </c>
+      <c r="J106">
+        <v>856.25</v>
+      </c>
+      <c r="K106">
+        <v>858.71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107">
+        <v>408.91</v>
+      </c>
+      <c r="J107">
+        <v>411.55</v>
+      </c>
+      <c r="K107">
+        <v>411.78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="I108">
+        <v>408.91</v>
+      </c>
+      <c r="J108">
+        <v>411.54</v>
+      </c>
+      <c r="K108">
+        <v>411.77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109">
+        <v>6744.61</v>
+      </c>
+      <c r="C109">
+        <v>1910.63</v>
+      </c>
+      <c r="D109">
+        <v>1902.67</v>
+      </c>
+      <c r="E109">
+        <v>781.26</v>
+      </c>
+      <c r="F109">
+        <v>781.26</v>
+      </c>
+      <c r="G109">
+        <v>781.27</v>
+      </c>
+      <c r="H109">
+        <v>544.49</v>
+      </c>
+      <c r="I109">
+        <v>534.09</v>
+      </c>
+      <c r="J109">
+        <v>537.54</v>
+      </c>
+      <c r="K109">
+        <v>533.59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110">
+        <v>6739.19</v>
+      </c>
+      <c r="C110">
+        <v>1910.63</v>
+      </c>
+      <c r="D110">
+        <v>842.6</v>
+      </c>
+      <c r="E110">
+        <v>1285.72</v>
+      </c>
+      <c r="F110">
+        <v>1719.88</v>
+      </c>
+      <c r="G110">
+        <v>1739.13</v>
+      </c>
+      <c r="H110">
+        <v>1547.58</v>
+      </c>
+      <c r="I110">
+        <v>1482.57</v>
+      </c>
+      <c r="J110">
+        <v>1678.11</v>
+      </c>
+      <c r="K110">
+        <v>1511.44</v>
       </c>
     </row>
   </sheetData>

--- a/doc/papers/cgo08/figures/experiments.xlsx
+++ b/doc/papers/cgo08/figures/experiments.xlsx
@@ -1,253 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="-680" yWindow="-21520" windowWidth="28520" windowHeight="21000" tabRatio="500" activeTab="2"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-  </sheets>
-  <definedNames>
-    <definedName name="t" localSheetId="2">Sheet1!$A$2:$K$8</definedName>
-    <definedName name="t_1" localSheetId="2">Sheet1!$A$26:$K$98</definedName>
-    <definedName name="t_2" localSheetId="0">Sheet2!$A$1:$K$8</definedName>
-    <definedName name="t_2" localSheetId="1">Sheet3!$A$1:$K$8</definedName>
-  </definedNames>
-  <calcPr calcId="130404" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Connection1" type="6" refreshedVersion="0">
-    <textPr fileType="mac" sourceFile="HD:Users:norris:t.csv" comma="1">
-      <textFields count="11">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" name="Connection2" type="6" refreshedVersion="0">
-    <textPr fileType="mac" sourceFile="HD:Users:norris:t.csv" comma="1">
-      <textFields count="11">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" name="Connection3" type="6" refreshedVersion="0">
-    <textPr fileType="mac" sourceFile="HD:Users:norris:t.csv" comma="1">
-      <textFields count="2">
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="4" name="Connection4" type="6" refreshedVersion="0">
-    <textPr fileType="mac" sourceFile="HD:Users:norris:t.csv" comma="1">
-      <textFields count="11">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
-  <si>
-    <t>C from Matlab</t>
-  </si>
-  <si>
-    <t>BLAS</t>
-  </si>
-  <si>
-    <t>Intel MKL</t>
-  </si>
-  <si>
-    <t>ATLAS</t>
-  </si>
-  <si>
-    <t>GEMVER Sequential</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VADD</t>
-  </si>
-  <si>
-    <t>BiCGkernel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GESUMMV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orio (Seq.)</t>
-  </si>
-  <si>
-    <t>Orio (Par.)</t>
-  </si>
-  <si>
-    <t>Orio (Par.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orio (Seq.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATLAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orio (Par.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C from Matlab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orio (Seq.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base (Seq.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BG/P (MFLOPS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base (Par.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESSL (Seq.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESSL (Par.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goto (Seq.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goto (Par.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orio (Seq.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orio (Par.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="2">
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF00FF00"/>
-      <color rgb="FF800080"/>
-      <color rgb="FFFF00FF"/>
-    </mruColors>
-  </colors>
-</styleSheet>
-</file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
@@ -261,8 +11,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.109824224705397"/>
-          <c:y val="0.203430674402425"/>
+          <c:x val="0.102990511721342"/>
+          <c:y val="0.185801452203708"/>
           <c:w val="0.865118827686403"/>
           <c:h val="0.614879507736591"/>
         </c:manualLayout>
@@ -278,7 +28,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C from Matlab</c:v>
+                  <c:v>C from MATLAB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -846,25 +596,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431788392"/>
-        <c:axId val="431791560"/>
+        <c:axId val="610745000"/>
+        <c:axId val="610748168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431788392"/>
+        <c:axId val="610745000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431791560"/>
+        <c:crossAx val="610748168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431791560"/>
+        <c:axId val="610748168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,7 +622,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431788392"/>
+        <c:crossAx val="610745000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -883,8 +633,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.196076444316898"/>
-          <c:y val="0.0491971902073696"/>
+          <c:x val="0.150518357756533"/>
+          <c:y val="0.0139387458099364"/>
           <c:w val="0.707618258244035"/>
           <c:h val="0.151329532084352"/>
         </c:manualLayout>
@@ -894,6 +644,12 @@
   </c:chart>
   <c:spPr>
     <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:prstDash val="sysDot"/>
     </a:ln>
     <a:effectLst/>
@@ -946,7 +702,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C from Matlab</c:v>
+                  <c:v>C from MATLAB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1514,25 +1270,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431860792"/>
-        <c:axId val="431863960"/>
+        <c:axId val="610847160"/>
+        <c:axId val="610850328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431860792"/>
+        <c:axId val="610847160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431863960"/>
+        <c:crossAx val="610850328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431863960"/>
+        <c:axId val="610850328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,7 +1296,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431860792"/>
+        <c:crossAx val="610847160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,6 +1318,12 @@
   </c:chart>
   <c:spPr>
     <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:prstDash val="sysDot"/>
     </a:ln>
     <a:effectLst/>
@@ -1614,7 +1376,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C from Matlab</c:v>
+                  <c:v>C from MATLAB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2182,25 +1944,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431908840"/>
-        <c:axId val="431912104"/>
+        <c:axId val="610918952"/>
+        <c:axId val="610906840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431908840"/>
+        <c:axId val="610918952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431912104"/>
+        <c:crossAx val="610906840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431912104"/>
+        <c:axId val="610906840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +1970,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431908840"/>
+        <c:crossAx val="610918952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2230,6 +1992,12 @@
   </c:chart>
   <c:spPr>
     <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:prstDash val="sysDot"/>
     </a:ln>
     <a:effectLst/>
@@ -2282,7 +2050,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C from Matlab</c:v>
+                  <c:v>C from MATLAB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2850,25 +2618,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="431957032"/>
-        <c:axId val="431960232"/>
+        <c:axId val="610966600"/>
+        <c:axId val="610969944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431957032"/>
+        <c:axId val="610966600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431960232"/>
+        <c:crossAx val="610969944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431960232"/>
+        <c:axId val="610969944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,7 +2644,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431957032"/>
+        <c:crossAx val="610966600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2898,6 +2666,12 @@
   </c:chart>
   <c:spPr>
     <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:prstDash val="sysDot"/>
     </a:ln>
     <a:effectLst/>
@@ -3669,25 +3443,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="451534792"/>
-        <c:axId val="451537912"/>
+        <c:axId val="611034264"/>
+        <c:axId val="611039352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="451534792"/>
+        <c:axId val="611034264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451537912"/>
+        <c:crossAx val="611039352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451537912"/>
+        <c:axId val="611039352"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3698,7 +3472,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451534792"/>
+        <c:crossAx val="611034264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3729,6 +3503,12 @@
   </c:chart>
   <c:spPr>
     <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:prstDash val="sysDot"/>
     </a:ln>
     <a:effectLst/>
@@ -3787,15 +3567,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85682</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>98382</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3817,15 +3597,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3847,15 +3627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3877,14 +3657,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4778,22 +4558,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="t_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="t_2" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="t" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="t_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5112,1895 +4876,4 @@
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C1">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D1">
-        <v>0.17</v>
-      </c>
-      <c r="E1">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="F1">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="G1">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="H1">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="I1">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="J1">
-        <v>1.53</v>
-      </c>
-      <c r="K1">
-        <v>1.8879999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C2">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.154</v>
-      </c>
-      <c r="E2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F2">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.623</v>
-      </c>
-      <c r="H2">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="I2">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="J2">
-        <v>1.383</v>
-      </c>
-      <c r="K2">
-        <v>1.744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D3">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.21</v>
-      </c>
-      <c r="G3">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="I3">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="J3">
-        <v>0.67800000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="E4">
-        <v>1.08</v>
-      </c>
-      <c r="F4">
-        <v>1.7</v>
-      </c>
-      <c r="G4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="H4">
-        <v>3.31</v>
-      </c>
-      <c r="I4">
-        <v>4.32</v>
-      </c>
-      <c r="J4">
-        <v>5.45</v>
-      </c>
-      <c r="K4">
-        <v>6.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="C5">
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.154</v>
-      </c>
-      <c r="E5">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="F5">
-        <v>0.433</v>
-      </c>
-      <c r="G5">
-        <v>0.62</v>
-      </c>
-      <c r="H5">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="I5">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J5">
-        <v>1.39</v>
-      </c>
-      <c r="K5">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5.3499999999999999E-5</v>
-      </c>
-      <c r="C6">
-        <v>1.66E-4</v>
-      </c>
-      <c r="D6">
-        <v>3.3799999999999998E-4</v>
-      </c>
-      <c r="E6">
-        <v>5.6999999999999998E-4</v>
-      </c>
-      <c r="F6">
-        <v>8.6499999999999999E-4</v>
-      </c>
-      <c r="G6">
-        <v>1.2099999999999999E-3</v>
-      </c>
-      <c r="H6">
-        <v>1.6299999999999999E-3</v>
-      </c>
-      <c r="I6">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="J6">
-        <v>2.63E-3</v>
-      </c>
-      <c r="K6">
-        <v>2.9199999999999999E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C1">
-        <v>0.156</v>
-      </c>
-      <c r="D1">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="E1">
-        <v>0.625</v>
-      </c>
-      <c r="F1">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G1">
-        <v>1.4039999999999999</v>
-      </c>
-      <c r="H1">
-        <v>1.907</v>
-      </c>
-      <c r="I1">
-        <v>2.488</v>
-      </c>
-      <c r="J1">
-        <v>3.1360000000000001</v>
-      </c>
-      <c r="K1">
-        <v>3.8690000000000002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.105</v>
-      </c>
-      <c r="E2">
-        <v>0.189</v>
-      </c>
-      <c r="F2">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="G2">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="H2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I2">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="J2">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="K2">
-        <v>1.1779999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C3">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D3">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E3">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="G3">
-        <v>0.193</v>
-      </c>
-      <c r="H3">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="I3">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="J3">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="K3">
-        <v>0.78900000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="C4">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F4">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="G4">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="H4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I4">
-        <v>1.43</v>
-      </c>
-      <c r="J4">
-        <v>1.8</v>
-      </c>
-      <c r="K4">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>5.1799999999999999E-2</v>
-      </c>
-      <c r="C5">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.154</v>
-      </c>
-      <c r="E5">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="F5">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="I5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J5">
-        <v>1.39</v>
-      </c>
-      <c r="K5">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>9.3500000000000007E-3</v>
-      </c>
-      <c r="C6">
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.125</v>
-      </c>
-      <c r="E6">
-        <v>0.316</v>
-      </c>
-      <c r="F6">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="G6">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="H6">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="I6">
-        <v>1.51</v>
-      </c>
-      <c r="J6">
-        <v>1.9</v>
-      </c>
-      <c r="K6">
-        <v>2.35</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K110"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K116" sqref="K116"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="B2">
-        <v>2000</v>
-      </c>
-      <c r="C2">
-        <v>4000</v>
-      </c>
-      <c r="D2">
-        <v>6000</v>
-      </c>
-      <c r="E2">
-        <v>8000</v>
-      </c>
-      <c r="F2">
-        <v>10000</v>
-      </c>
-      <c r="G2">
-        <v>12000</v>
-      </c>
-      <c r="H2">
-        <v>14000</v>
-      </c>
-      <c r="I2">
-        <v>16000</v>
-      </c>
-      <c r="J2">
-        <v>18000</v>
-      </c>
-      <c r="K2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C3">
-        <v>0.157</v>
-      </c>
-      <c r="D3">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="E3">
-        <v>0.626</v>
-      </c>
-      <c r="F3">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G3">
-        <v>1.4059999999999999</v>
-      </c>
-      <c r="H3">
-        <v>1.909</v>
-      </c>
-      <c r="I3">
-        <v>2.4940000000000002</v>
-      </c>
-      <c r="J3">
-        <v>3.1429999999999998</v>
-      </c>
-      <c r="K3">
-        <v>3.8860000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.48</v>
-      </c>
-      <c r="F4">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="G4">
-        <v>1.075</v>
-      </c>
-      <c r="H4">
-        <v>1.4470000000000001</v>
-      </c>
-      <c r="I4">
-        <v>1.899</v>
-      </c>
-      <c r="J4">
-        <v>2.3380000000000001</v>
-      </c>
-      <c r="K4">
-        <v>2.9780000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.112</v>
-      </c>
-      <c r="D5">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.42</v>
-      </c>
-      <c r="F5">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="G5">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="H5">
-        <v>1.25</v>
-      </c>
-      <c r="I5">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="J5">
-        <v>2.0630000000000002</v>
-      </c>
-      <c r="K5">
-        <v>2.5459999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="E6">
-        <v>1.091</v>
-      </c>
-      <c r="F6">
-        <v>1.7110000000000001</v>
-      </c>
-      <c r="G6">
-        <v>2.456</v>
-      </c>
-      <c r="H6">
-        <v>3.34</v>
-      </c>
-      <c r="I6">
-        <v>4.3449999999999998</v>
-      </c>
-      <c r="J6">
-        <v>5.48</v>
-      </c>
-      <c r="K6">
-        <v>6.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="D7">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="F7">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="G7">
-        <v>1.3</v>
-      </c>
-      <c r="H7">
-        <v>1.78</v>
-      </c>
-      <c r="I7">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="J7">
-        <v>2.93</v>
-      </c>
-      <c r="K7">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>3.9E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.159</v>
-      </c>
-      <c r="D8">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="E8">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="F8">
-        <v>1.29</v>
-      </c>
-      <c r="G8">
-        <v>1.9</v>
-      </c>
-      <c r="H8">
-        <v>2.5819999999999999</v>
-      </c>
-      <c r="I8">
-        <v>3.42</v>
-      </c>
-      <c r="J8">
-        <v>4.29</v>
-      </c>
-      <c r="K8">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="B25">
-        <v>2000</v>
-      </c>
-      <c r="C25">
-        <v>4000</v>
-      </c>
-      <c r="D25">
-        <v>6000</v>
-      </c>
-      <c r="E25">
-        <v>8000</v>
-      </c>
-      <c r="F25">
-        <v>10000</v>
-      </c>
-      <c r="G25">
-        <v>12000</v>
-      </c>
-      <c r="H25">
-        <v>14000</v>
-      </c>
-      <c r="I25">
-        <v>16000</v>
-      </c>
-      <c r="J25">
-        <v>18000</v>
-      </c>
-      <c r="K25">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0.01</v>
-      </c>
-      <c r="C26">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D26">
-        <v>0.104</v>
-      </c>
-      <c r="E26">
-        <v>0.185</v>
-      </c>
-      <c r="F26">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G26">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="H26">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="I26">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="J26">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="K26">
-        <v>1.171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C27">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D27">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="E27">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="F27">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="G27">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="H27">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="J27">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="K27">
-        <v>0.92300000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>9.4E-2</v>
-      </c>
-      <c r="C28">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D28">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E28">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="F28">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="G28">
-        <v>0.183</v>
-      </c>
-      <c r="H28">
-        <v>0.245</v>
-      </c>
-      <c r="I28">
-        <v>0.33</v>
-      </c>
-      <c r="J28">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="K28">
-        <v>0.50900000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="C29">
-        <v>8.6300000000000002E-2</v>
-      </c>
-      <c r="D29">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="E29">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="F29">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="G29">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="H29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I29">
-        <v>1.43</v>
-      </c>
-      <c r="J29">
-        <v>1.82</v>
-      </c>
-      <c r="K29">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>2.46E-2</v>
-      </c>
-      <c r="C30">
-        <v>6.88E-2</v>
-      </c>
-      <c r="D30">
-        <v>0.154</v>
-      </c>
-      <c r="E30">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="F30">
-        <v>0.432</v>
-      </c>
-      <c r="G30">
-        <v>0.62</v>
-      </c>
-      <c r="H30">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="I30">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J30">
-        <v>1.39</v>
-      </c>
-      <c r="K30">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>9.2700000000000005E-3</v>
-      </c>
-      <c r="C31">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="D31">
-        <v>0.129</v>
-      </c>
-      <c r="E31">
-        <v>0.317</v>
-      </c>
-      <c r="F31">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="G31">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="H31">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="I31">
-        <v>1.53</v>
-      </c>
-      <c r="J31">
-        <v>1.65</v>
-      </c>
-      <c r="K31">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="B46">
-        <v>2000</v>
-      </c>
-      <c r="C46">
-        <v>4000</v>
-      </c>
-      <c r="D46">
-        <v>6000</v>
-      </c>
-      <c r="E46">
-        <v>8000</v>
-      </c>
-      <c r="F46">
-        <v>10000</v>
-      </c>
-      <c r="G46">
-        <v>12000</v>
-      </c>
-      <c r="H46">
-        <v>14000</v>
-      </c>
-      <c r="I46">
-        <v>16000</v>
-      </c>
-      <c r="J46">
-        <v>18000</v>
-      </c>
-      <c r="K46">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C47">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D47">
-        <v>0.17</v>
-      </c>
-      <c r="E47">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="F47">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="G47">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="H47">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="I47">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="J47">
-        <v>1.53</v>
-      </c>
-      <c r="K47">
-        <v>1.8879999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C48">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="D48">
-        <v>0.154</v>
-      </c>
-      <c r="E48">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F48">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="G48">
-        <v>0.623</v>
-      </c>
-      <c r="H48">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="I48">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="J48">
-        <v>1.383</v>
-      </c>
-      <c r="K48">
-        <v>1.744</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C49">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D49">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E49">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F49">
-        <v>0.21</v>
-      </c>
-      <c r="G49">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="H49">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="I49">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="J49">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="K49">
-        <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="C50">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D50">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="E50">
-        <v>1.08</v>
-      </c>
-      <c r="F50">
-        <v>1.7</v>
-      </c>
-      <c r="G50">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="H50">
-        <v>3.31</v>
-      </c>
-      <c r="I50">
-        <v>4.32</v>
-      </c>
-      <c r="J50">
-        <v>5.45</v>
-      </c>
-      <c r="K50">
-        <v>6.78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="C51">
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="D51">
-        <v>0.154</v>
-      </c>
-      <c r="E51">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="F51">
-        <v>0.433</v>
-      </c>
-      <c r="G51">
-        <v>0.62</v>
-      </c>
-      <c r="H51">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="I51">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J51">
-        <v>1.39</v>
-      </c>
-      <c r="K51">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="1">
-        <v>5.3600000000000002E-5</v>
-      </c>
-      <c r="C52">
-        <v>1.5200000000000001E-4</v>
-      </c>
-      <c r="D52">
-        <v>3.0800000000000001E-4</v>
-      </c>
-      <c r="E52">
-        <v>5.1900000000000004E-4</v>
-      </c>
-      <c r="F52">
-        <v>8.61E-4</v>
-      </c>
-      <c r="G52">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="H52">
-        <v>1.6299999999999999E-3</v>
-      </c>
-      <c r="I52">
-        <v>1.9E-3</v>
-      </c>
-      <c r="J52">
-        <v>2.3800000000000002E-3</v>
-      </c>
-      <c r="K52">
-        <v>3.2200000000000002E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="B68">
-        <v>2000</v>
-      </c>
-      <c r="C68">
-        <v>4000</v>
-      </c>
-      <c r="D68">
-        <v>6000</v>
-      </c>
-      <c r="E68">
-        <v>8000</v>
-      </c>
-      <c r="F68">
-        <v>10000</v>
-      </c>
-      <c r="G68">
-        <v>12000</v>
-      </c>
-      <c r="H68">
-        <v>14000</v>
-      </c>
-      <c r="I68">
-        <v>16000</v>
-      </c>
-      <c r="J68">
-        <v>18000</v>
-      </c>
-      <c r="K68">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C69">
-        <v>0.156</v>
-      </c>
-      <c r="D69">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="E69">
-        <v>0.625</v>
-      </c>
-      <c r="F69">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G69">
-        <v>1.4039999999999999</v>
-      </c>
-      <c r="H69">
-        <v>1.907</v>
-      </c>
-      <c r="I69">
-        <v>2.488</v>
-      </c>
-      <c r="J69">
-        <v>3.1360000000000001</v>
-      </c>
-      <c r="K69">
-        <v>3.8690000000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C70">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D70">
-        <v>0.105</v>
-      </c>
-      <c r="E70">
-        <v>0.189</v>
-      </c>
-      <c r="F70">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="G70">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="H70">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I70">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="J70">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="K70">
-        <v>1.1779999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C71">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D71">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E71">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="F71">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="G71">
-        <v>0.193</v>
-      </c>
-      <c r="H71">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="I71">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="J71">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="K71">
-        <v>0.78900000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="C72">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="D72">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="E72">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F72">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="G72">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="H72">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I72">
-        <v>1.43</v>
-      </c>
-      <c r="J72">
-        <v>1.8</v>
-      </c>
-      <c r="K72">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73">
-        <v>5.1799999999999999E-2</v>
-      </c>
-      <c r="C73">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="D73">
-        <v>0.154</v>
-      </c>
-      <c r="E73">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="F73">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="G73">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="H73">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="I73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J73">
-        <v>1.39</v>
-      </c>
-      <c r="K73">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74">
-        <v>9.3500000000000007E-3</v>
-      </c>
-      <c r="C74">
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="D74">
-        <v>0.125</v>
-      </c>
-      <c r="E74">
-        <v>0.316</v>
-      </c>
-      <c r="F74">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="G74">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="H74">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="I74">
-        <v>1.51</v>
-      </c>
-      <c r="J74">
-        <v>1.9</v>
-      </c>
-      <c r="K74">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="B92">
-        <v>2000</v>
-      </c>
-      <c r="C92">
-        <v>4000</v>
-      </c>
-      <c r="D92">
-        <v>6000</v>
-      </c>
-      <c r="E92">
-        <v>8000</v>
-      </c>
-      <c r="F92">
-        <v>10000</v>
-      </c>
-      <c r="G92">
-        <v>12000</v>
-      </c>
-      <c r="H92">
-        <v>14000</v>
-      </c>
-      <c r="I92">
-        <v>16000</v>
-      </c>
-      <c r="J92">
-        <v>18000</v>
-      </c>
-      <c r="K92">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="1">
-        <v>1.36E-5</v>
-      </c>
-      <c r="C96" s="1">
-        <v>2.9E-5</v>
-      </c>
-      <c r="D96" s="1">
-        <v>4.2899999999999999E-5</v>
-      </c>
-      <c r="E96" s="1">
-        <v>5.7899999999999998E-5</v>
-      </c>
-      <c r="F96" s="1">
-        <v>7.1400000000000001E-5</v>
-      </c>
-      <c r="G96" s="1">
-        <v>8.6100000000000006E-5</v>
-      </c>
-      <c r="H96">
-        <v>1E-4</v>
-      </c>
-      <c r="I96">
-        <v>1.15E-4</v>
-      </c>
-      <c r="J96">
-        <v>1.3100000000000001E-4</v>
-      </c>
-      <c r="K96">
-        <v>1.46E-4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="1">
-        <v>2.0800000000000001E-5</v>
-      </c>
-      <c r="C97" s="1">
-        <v>1.2099999999999999E-5</v>
-      </c>
-      <c r="D97" s="1">
-        <v>1.6500000000000001E-5</v>
-      </c>
-      <c r="E97" s="1">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="F97" s="1">
-        <v>2.7500000000000001E-5</v>
-      </c>
-      <c r="G97" s="1">
-        <v>3.3200000000000001E-5</v>
-      </c>
-      <c r="H97" s="1">
-        <v>3.8099999999999998E-5</v>
-      </c>
-      <c r="I97" s="1">
-        <v>4.35E-5</v>
-      </c>
-      <c r="J97" s="1">
-        <v>4.9499999999999997E-5</v>
-      </c>
-      <c r="K97" s="1">
-        <v>5.5000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="1">
-        <v>1.27E-5</v>
-      </c>
-      <c r="C98" s="1">
-        <v>2.7800000000000001E-5</v>
-      </c>
-      <c r="D98" s="1">
-        <v>4.1499999999999999E-5</v>
-      </c>
-      <c r="E98" s="1">
-        <v>5.5699999999999999E-5</v>
-      </c>
-      <c r="F98" s="1">
-        <v>6.8899999999999994E-5</v>
-      </c>
-      <c r="G98" s="1">
-        <v>8.2700000000000004E-5</v>
-      </c>
-      <c r="H98" s="1">
-        <v>9.6700000000000006E-5</v>
-      </c>
-      <c r="I98">
-        <v>1.11E-4</v>
-      </c>
-      <c r="J98">
-        <v>1.27E-4</v>
-      </c>
-      <c r="K98">
-        <v>1.4200000000000001E-4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="B102">
-        <v>10</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102">
-        <v>1000</v>
-      </c>
-      <c r="E102">
-        <v>10000</v>
-      </c>
-      <c r="F102">
-        <v>50000</v>
-      </c>
-      <c r="G102">
-        <v>100000</v>
-      </c>
-      <c r="H102">
-        <v>500000</v>
-      </c>
-      <c r="I102">
-        <v>1000000</v>
-      </c>
-      <c r="J102">
-        <v>5000000</v>
-      </c>
-      <c r="K102">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103">
-        <v>69.204657999999995</v>
-      </c>
-      <c r="C103">
-        <v>221.72</v>
-      </c>
-      <c r="D103">
-        <v>364.54</v>
-      </c>
-      <c r="E103">
-        <v>247.19</v>
-      </c>
-      <c r="F103">
-        <v>254.94</v>
-      </c>
-      <c r="G103">
-        <v>255.88</v>
-      </c>
-      <c r="H103">
-        <v>289.18</v>
-      </c>
-      <c r="I103">
-        <v>289</v>
-      </c>
-      <c r="J103">
-        <v>289.2</v>
-      </c>
-      <c r="K103">
-        <v>289.18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" t="s">
-        <v>19</v>
-      </c>
-      <c r="B104">
-        <v>15.14</v>
-      </c>
-      <c r="C104">
-        <v>122.53</v>
-      </c>
-      <c r="D104">
-        <v>695.77</v>
-      </c>
-      <c r="E104">
-        <v>834.75</v>
-      </c>
-      <c r="F104">
-        <v>984.1</v>
-      </c>
-      <c r="G104">
-        <v>1003.73</v>
-      </c>
-      <c r="H104">
-        <v>1151.7</v>
-      </c>
-      <c r="I104">
-        <v>1150</v>
-      </c>
-      <c r="J104">
-        <v>1154.57</v>
-      </c>
-      <c r="K104">
-        <v>1153.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" t="s">
-        <v>20</v>
-      </c>
-      <c r="I105">
-        <v>473.21</v>
-      </c>
-      <c r="J105">
-        <v>487.49</v>
-      </c>
-      <c r="K105">
-        <v>488.23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" t="s">
-        <v>21</v>
-      </c>
-      <c r="I106">
-        <v>831.31</v>
-      </c>
-      <c r="J106">
-        <v>856.25</v>
-      </c>
-      <c r="K106">
-        <v>858.71</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" t="s">
-        <v>22</v>
-      </c>
-      <c r="I107">
-        <v>408.91</v>
-      </c>
-      <c r="J107">
-        <v>411.55</v>
-      </c>
-      <c r="K107">
-        <v>411.78</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" t="s">
-        <v>23</v>
-      </c>
-      <c r="I108">
-        <v>408.91</v>
-      </c>
-      <c r="J108">
-        <v>411.54</v>
-      </c>
-      <c r="K108">
-        <v>411.77</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" t="s">
-        <v>24</v>
-      </c>
-      <c r="B109">
-        <v>6744.61</v>
-      </c>
-      <c r="C109">
-        <v>1910.63</v>
-      </c>
-      <c r="D109">
-        <v>1902.67</v>
-      </c>
-      <c r="E109">
-        <v>781.26</v>
-      </c>
-      <c r="F109">
-        <v>781.26</v>
-      </c>
-      <c r="G109">
-        <v>781.27</v>
-      </c>
-      <c r="H109">
-        <v>544.49</v>
-      </c>
-      <c r="I109">
-        <v>534.09</v>
-      </c>
-      <c r="J109">
-        <v>537.54</v>
-      </c>
-      <c r="K109">
-        <v>533.59</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" t="s">
-        <v>25</v>
-      </c>
-      <c r="B110">
-        <v>6739.19</v>
-      </c>
-      <c r="C110">
-        <v>1910.63</v>
-      </c>
-      <c r="D110">
-        <v>842.6</v>
-      </c>
-      <c r="E110">
-        <v>1285.72</v>
-      </c>
-      <c r="F110">
-        <v>1719.88</v>
-      </c>
-      <c r="G110">
-        <v>1739.13</v>
-      </c>
-      <c r="H110">
-        <v>1547.58</v>
-      </c>
-      <c r="I110">
-        <v>1482.57</v>
-      </c>
-      <c r="J110">
-        <v>1678.11</v>
-      </c>
-      <c r="K110">
-        <v>1511.44</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>